--- a/biology/Zoologie/Antrodiaetidae/Antrodiaetidae.xlsx
+++ b/biology/Zoologie/Antrodiaetidae/Antrodiaetidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Antrodiaetidae sont une famille d'araignées mygalomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Antrodiaetidae sont une famille d'araignées mygalomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent aux États-Unis, au Canada et au Japon[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent aux États-Unis, au Canada et au Japon,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Leur morphologie est très proche de celles des Atypidae et des Ctenizidae. 
 Elles pratiquent la chasse à l'affût.
@@ -574,9 +590,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Crétacé[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Crétacé.
 </t>
         </is>
       </c>
@@ -605,14 +623,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 23/01/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 23/01/2024) :
 Aliatypus Smith, 1908
 Antrodiaetus Ausserer, 1871
 Atypoides O. Pickard-Cambridge, 1883
 Hexura Simon, 1885
-Selon World Spider Catalog (version 23.5, 2023)[3] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Cretacattyma Eskov &amp; Zonstein, 1990</t>
         </is>
       </c>
@@ -641,10 +661,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Gertsch en 1940 comme une sous-famille des Ctenizidae.
-Cette famille rassemble 37 espèces dans quatre genres[1].
+Cette famille rassemble 37 espèces dans quatre genres.
 </t>
         </is>
       </c>
@@ -673,7 +695,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Comstock, 1940 : The spider book, revised and edited by W. J. Gertsch. Cornell University Press, p. 1-727.</t>
         </is>
